--- a/page/eb09/t03/eb09-t03.xlsx
+++ b/page/eb09/t03/eb09-t03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\production\eb09\t03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0744CCFC-1E53-492E-B841-D7DBE021F78D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161FBE3B-F28F-4EFF-9B75-D3A6FD1F0DCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t03" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="269">
   <si>
     <t>image-fn.jp2</t>
   </si>
@@ -796,6 +796,42 @@
   </si>
   <si>
     <t>blank</t>
+  </si>
+  <si>
+    <t>table in footnote</t>
+  </si>
+  <si>
+    <t>complex formatting w/ pictures</t>
+  </si>
+  <si>
+    <t>weird formatting beneath table</t>
+  </si>
+  <si>
+    <t>equations and tables weirdness</t>
+  </si>
+  <si>
+    <t>equations</t>
+  </si>
+  <si>
+    <t>footnote carried over from prev. pg.</t>
+  </si>
+  <si>
+    <t>first column: weird text formatting from cutting pictures</t>
+  </si>
+  <si>
+    <t>footnote from previous page; footnote in picture caption</t>
+  </si>
+  <si>
+    <t>complex tables</t>
+  </si>
+  <si>
+    <t>format issues</t>
+  </si>
+  <si>
+    <t>type setting</t>
+  </si>
+  <si>
+    <t>misc. symbols</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1213,8 @@
   <dimension ref="A1:L245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L228" sqref="L228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1448,9 @@
       <c r="I11" s="4"/>
       <c r="J11" s="17"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -2006,7 +2044,9 @@
       <c r="I44" s="4"/>
       <c r="J44" s="17"/>
       <c r="K44" s="15"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -2024,7 +2064,9 @@
       <c r="I45" s="4"/>
       <c r="J45" s="17"/>
       <c r="K45" s="15"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
@@ -2778,7 +2820,9 @@
       <c r="I85" s="4"/>
       <c r="J85" s="17"/>
       <c r="K85" s="15"/>
-      <c r="L85" s="3"/>
+      <c r="L85" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
@@ -2858,7 +2902,9 @@
       <c r="I89" s="4"/>
       <c r="J89" s="17"/>
       <c r="K89" s="15"/>
-      <c r="L89" s="3"/>
+      <c r="L89" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -2878,7 +2924,9 @@
       <c r="I90" s="4"/>
       <c r="J90" s="17"/>
       <c r="K90" s="15"/>
-      <c r="L90" s="3"/>
+      <c r="L90" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -2898,7 +2946,9 @@
       <c r="I91" s="4"/>
       <c r="J91" s="17"/>
       <c r="K91" s="15"/>
-      <c r="L91" s="3"/>
+      <c r="L91" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -2918,7 +2968,9 @@
       <c r="I92" s="4"/>
       <c r="J92" s="17"/>
       <c r="K92" s="15"/>
-      <c r="L92" s="3"/>
+      <c r="L92" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
@@ -2938,7 +2990,9 @@
       <c r="I93" s="4"/>
       <c r="J93" s="17"/>
       <c r="K93" s="15"/>
-      <c r="L93" s="3"/>
+      <c r="L93" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
@@ -2958,7 +3012,9 @@
       <c r="I94" s="4"/>
       <c r="J94" s="17"/>
       <c r="K94" s="15"/>
-      <c r="L94" s="3"/>
+      <c r="L94" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
@@ -2978,7 +3034,9 @@
       <c r="I95" s="4"/>
       <c r="J95" s="17"/>
       <c r="K95" s="15"/>
-      <c r="L95" s="3"/>
+      <c r="L95" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
@@ -2998,7 +3056,9 @@
       <c r="I96" s="4"/>
       <c r="J96" s="17"/>
       <c r="K96" s="15"/>
-      <c r="L96" s="3"/>
+      <c r="L96" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -3018,7 +3078,9 @@
       <c r="I97" s="4"/>
       <c r="J97" s="17"/>
       <c r="K97" s="15"/>
-      <c r="L97" s="3"/>
+      <c r="L97" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -3038,7 +3100,9 @@
       <c r="I98" s="4"/>
       <c r="J98" s="17"/>
       <c r="K98" s="15"/>
-      <c r="L98" s="3"/>
+      <c r="L98" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
@@ -3298,7 +3362,9 @@
       <c r="I111" s="4"/>
       <c r="J111" s="17"/>
       <c r="K111" s="15"/>
-      <c r="L111" s="3"/>
+      <c r="L111" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
@@ -3358,7 +3424,9 @@
       <c r="I114" s="4"/>
       <c r="J114" s="17"/>
       <c r="K114" s="15"/>
-      <c r="L114" s="3"/>
+      <c r="L114" s="3" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
@@ -4258,7 +4326,9 @@
       <c r="I159" s="4"/>
       <c r="J159" s="17"/>
       <c r="K159" s="15"/>
-      <c r="L159" s="3"/>
+      <c r="L159" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
@@ -4758,7 +4828,9 @@
       <c r="I184" s="4"/>
       <c r="J184" s="17"/>
       <c r="K184" s="15"/>
-      <c r="L184" s="3"/>
+      <c r="L184" s="3" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
@@ -5213,7 +5285,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B209" s="3" t="s">
         <v>218</v>
       </c>
@@ -5224,7 +5296,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
         <v>219</v>
       </c>
@@ -5235,7 +5307,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
         <v>220</v>
       </c>
@@ -5246,7 +5318,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
         <v>221</v>
       </c>
@@ -5257,7 +5329,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
         <v>222</v>
       </c>
@@ -5268,7 +5340,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B214" s="3" t="s">
         <v>223</v>
       </c>
@@ -5279,7 +5351,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B215" s="3" t="s">
         <v>224</v>
       </c>
@@ -5289,8 +5361,11 @@
       <c r="D215">
         <v>684</v>
       </c>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="L215" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B216" s="3" t="s">
         <v>225</v>
       </c>
@@ -5301,7 +5376,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B217" s="3" t="s">
         <v>226</v>
       </c>
@@ -5312,7 +5387,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B218" s="3" t="s">
         <v>227</v>
       </c>
@@ -5323,7 +5398,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B219" s="3" t="s">
         <v>228</v>
       </c>
@@ -5334,7 +5409,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B220" s="3" t="s">
         <v>229</v>
       </c>
@@ -5345,7 +5420,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B221" s="3" t="s">
         <v>230</v>
       </c>
@@ -5356,7 +5431,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B222" s="3" t="s">
         <v>231</v>
       </c>
@@ -5367,7 +5442,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B223" s="3" t="s">
         <v>232</v>
       </c>
@@ -5378,7 +5453,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B224" s="3" t="s">
         <v>233</v>
       </c>
@@ -5388,8 +5463,11 @@
       <c r="D224">
         <v>693</v>
       </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="L224" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B225" s="3" t="s">
         <v>234</v>
       </c>
@@ -5400,7 +5478,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B226" s="3" t="s">
         <v>235</v>
       </c>
@@ -5411,7 +5489,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B227" s="3" t="s">
         <v>236</v>
       </c>
@@ -5422,7 +5500,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B228" s="3" t="s">
         <v>237</v>
       </c>
@@ -5432,8 +5510,11 @@
       <c r="D228">
         <v>697</v>
       </c>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="L228" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B229" s="3" t="s">
         <v>238</v>
       </c>
@@ -5444,7 +5525,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B230" s="3" t="s">
         <v>239</v>
       </c>
@@ -5455,7 +5536,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B231" s="3" t="s">
         <v>240</v>
       </c>
@@ -5466,7 +5547,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B232" s="3" t="s">
         <v>241</v>
       </c>
@@ -5477,7 +5558,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B233" s="3" t="s">
         <v>242</v>
       </c>
@@ -5488,7 +5569,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B234" s="3" t="s">
         <v>243</v>
       </c>
@@ -5499,7 +5580,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B235" s="3" t="s">
         <v>244</v>
       </c>
@@ -5510,7 +5591,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B236" s="3" t="s">
         <v>245</v>
       </c>
@@ -5521,7 +5602,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B237" s="3" t="s">
         <v>246</v>
       </c>
@@ -5532,7 +5613,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B238" s="3" t="s">
         <v>247</v>
       </c>
@@ -5543,7 +5624,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B239" s="3" t="s">
         <v>248</v>
       </c>
@@ -5554,7 +5635,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B240" s="3" t="s">
         <v>249</v>
       </c>

--- a/page/eb09/t03/eb09-t03.xlsx
+++ b/page/eb09/t03/eb09-t03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\production\eb09\t03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161FBE3B-F28F-4EFF-9B75-D3A6FD1F0DCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E859FF4F-B56C-49D8-AE09-0E0E04C47695}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="509">
   <si>
     <t>image-fn.jp2</t>
   </si>
@@ -832,6 +832,726 @@
   </si>
   <si>
     <t>misc. symbols</t>
+  </si>
+  <si>
+    <t>footnote from prev. pg</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>eb09-t03-0001</t>
+  </si>
+  <si>
+    <t>eb09-t03-0002</t>
+  </si>
+  <si>
+    <t>eb09-t03-0003</t>
+  </si>
+  <si>
+    <t>eb09-t03-0004</t>
+  </si>
+  <si>
+    <t>eb09-t03-0005</t>
+  </si>
+  <si>
+    <t>eb09-t03-0006</t>
+  </si>
+  <si>
+    <t>eb09-t03-0007</t>
+  </si>
+  <si>
+    <t>eb09-t03-0008</t>
+  </si>
+  <si>
+    <t>eb09-t03-0009</t>
+  </si>
+  <si>
+    <t>eb09-t03-0010</t>
+  </si>
+  <si>
+    <t>eb09-t03-0011</t>
+  </si>
+  <si>
+    <t>eb09-t03-0012</t>
+  </si>
+  <si>
+    <t>eb09-t03-0013</t>
+  </si>
+  <si>
+    <t>eb09-t03-0014</t>
+  </si>
+  <si>
+    <t>eb09-t03-0015</t>
+  </si>
+  <si>
+    <t>eb09-t03-0016</t>
+  </si>
+  <si>
+    <t>eb09-t03-0017</t>
+  </si>
+  <si>
+    <t>eb09-t03-0018</t>
+  </si>
+  <si>
+    <t>eb09-t03-0019</t>
+  </si>
+  <si>
+    <t>eb09-t03-0020</t>
+  </si>
+  <si>
+    <t>eb09-t03-0021</t>
+  </si>
+  <si>
+    <t>eb09-t03-0022</t>
+  </si>
+  <si>
+    <t>eb09-t03-0023</t>
+  </si>
+  <si>
+    <t>eb09-t03-0024</t>
+  </si>
+  <si>
+    <t>eb09-t03-0025</t>
+  </si>
+  <si>
+    <t>eb09-t03-0026</t>
+  </si>
+  <si>
+    <t>eb09-t03-0027</t>
+  </si>
+  <si>
+    <t>eb09-t03-0028</t>
+  </si>
+  <si>
+    <t>eb09-t03-0029</t>
+  </si>
+  <si>
+    <t>eb09-t03-0030</t>
+  </si>
+  <si>
+    <t>eb09-t03-0031</t>
+  </si>
+  <si>
+    <t>eb09-t03-0032</t>
+  </si>
+  <si>
+    <t>eb09-t03-0033</t>
+  </si>
+  <si>
+    <t>eb09-t03-0034</t>
+  </si>
+  <si>
+    <t>eb09-t03-0035</t>
+  </si>
+  <si>
+    <t>eb09-t03-0036</t>
+  </si>
+  <si>
+    <t>eb09-t03-0037</t>
+  </si>
+  <si>
+    <t>eb09-t03-0038</t>
+  </si>
+  <si>
+    <t>eb09-t03-0039</t>
+  </si>
+  <si>
+    <t>eb09-t03-0040</t>
+  </si>
+  <si>
+    <t>eb09-t03-0041</t>
+  </si>
+  <si>
+    <t>eb09-t03-0042</t>
+  </si>
+  <si>
+    <t>eb09-t03-0043</t>
+  </si>
+  <si>
+    <t>eb09-t03-0044</t>
+  </si>
+  <si>
+    <t>eb09-t03-0045</t>
+  </si>
+  <si>
+    <t>eb09-t03-0046</t>
+  </si>
+  <si>
+    <t>eb09-t03-0047</t>
+  </si>
+  <si>
+    <t>eb09-t03-0048</t>
+  </si>
+  <si>
+    <t>eb09-t03-0049</t>
+  </si>
+  <si>
+    <t>eb09-t03-0050</t>
+  </si>
+  <si>
+    <t>eb09-t03-0051</t>
+  </si>
+  <si>
+    <t>eb09-t03-0052</t>
+  </si>
+  <si>
+    <t>eb09-t03-0053</t>
+  </si>
+  <si>
+    <t>eb09-t03-0054</t>
+  </si>
+  <si>
+    <t>eb09-t03-0055</t>
+  </si>
+  <si>
+    <t>eb09-t03-0056</t>
+  </si>
+  <si>
+    <t>eb09-t03-0057</t>
+  </si>
+  <si>
+    <t>eb09-t03-0058</t>
+  </si>
+  <si>
+    <t>eb09-t03-0059</t>
+  </si>
+  <si>
+    <t>eb09-t03-0060</t>
+  </si>
+  <si>
+    <t>eb09-t03-0061</t>
+  </si>
+  <si>
+    <t>eb09-t03-0062</t>
+  </si>
+  <si>
+    <t>eb09-t03-0063</t>
+  </si>
+  <si>
+    <t>eb09-t03-0064</t>
+  </si>
+  <si>
+    <t>eb09-t03-0065</t>
+  </si>
+  <si>
+    <t>eb09-t03-0066</t>
+  </si>
+  <si>
+    <t>eb09-t03-0067</t>
+  </si>
+  <si>
+    <t>eb09-t03-0068</t>
+  </si>
+  <si>
+    <t>eb09-t03-0069</t>
+  </si>
+  <si>
+    <t>eb09-t03-0070</t>
+  </si>
+  <si>
+    <t>eb09-t03-0071</t>
+  </si>
+  <si>
+    <t>eb09-t03-0072</t>
+  </si>
+  <si>
+    <t>eb09-t03-0073</t>
+  </si>
+  <si>
+    <t>eb09-t03-0074</t>
+  </si>
+  <si>
+    <t>eb09-t03-0075</t>
+  </si>
+  <si>
+    <t>eb09-t03-0076</t>
+  </si>
+  <si>
+    <t>eb09-t03-0077</t>
+  </si>
+  <si>
+    <t>eb09-t03-0078</t>
+  </si>
+  <si>
+    <t>eb09-t03-0079</t>
+  </si>
+  <si>
+    <t>eb09-t03-0080</t>
+  </si>
+  <si>
+    <t>eb09-t03-0081</t>
+  </si>
+  <si>
+    <t>eb09-t03-0082</t>
+  </si>
+  <si>
+    <t>eb09-t03-0083</t>
+  </si>
+  <si>
+    <t>eb09-t03-0084</t>
+  </si>
+  <si>
+    <t>eb09-t03-0085</t>
+  </si>
+  <si>
+    <t>eb09-t03-0086</t>
+  </si>
+  <si>
+    <t>eb09-t03-0087</t>
+  </si>
+  <si>
+    <t>eb09-t03-0088</t>
+  </si>
+  <si>
+    <t>eb09-t03-0089</t>
+  </si>
+  <si>
+    <t>eb09-t03-0090</t>
+  </si>
+  <si>
+    <t>eb09-t03-0091</t>
+  </si>
+  <si>
+    <t>eb09-t03-0092</t>
+  </si>
+  <si>
+    <t>eb09-t03-0093</t>
+  </si>
+  <si>
+    <t>eb09-t03-0094</t>
+  </si>
+  <si>
+    <t>eb09-t03-0095</t>
+  </si>
+  <si>
+    <t>eb09-t03-0096</t>
+  </si>
+  <si>
+    <t>eb09-t03-0097</t>
+  </si>
+  <si>
+    <t>eb09-t03-0098</t>
+  </si>
+  <si>
+    <t>eb09-t03-0099</t>
+  </si>
+  <si>
+    <t>eb09-t03-0100</t>
+  </si>
+  <si>
+    <t>eb09-t03-0101</t>
+  </si>
+  <si>
+    <t>eb09-t03-0102</t>
+  </si>
+  <si>
+    <t>eb09-t03-0103</t>
+  </si>
+  <si>
+    <t>eb09-t03-0104</t>
+  </si>
+  <si>
+    <t>eb09-t03-0105</t>
+  </si>
+  <si>
+    <t>eb09-t03-0106</t>
+  </si>
+  <si>
+    <t>eb09-t03-0107</t>
+  </si>
+  <si>
+    <t>eb09-t03-0108</t>
+  </si>
+  <si>
+    <t>eb09-t03-0109</t>
+  </si>
+  <si>
+    <t>eb09-t03-0110</t>
+  </si>
+  <si>
+    <t>eb09-t03-0111</t>
+  </si>
+  <si>
+    <t>eb09-t03-0112</t>
+  </si>
+  <si>
+    <t>eb09-t03-0113</t>
+  </si>
+  <si>
+    <t>eb09-t03-0114</t>
+  </si>
+  <si>
+    <t>eb09-t03-0115</t>
+  </si>
+  <si>
+    <t>eb09-t03-0116</t>
+  </si>
+  <si>
+    <t>eb09-t03-0117</t>
+  </si>
+  <si>
+    <t>eb09-t03-0118</t>
+  </si>
+  <si>
+    <t>eb09-t03-0119</t>
+  </si>
+  <si>
+    <t>eb09-t03-0120</t>
+  </si>
+  <si>
+    <t>eb09-t03-0121</t>
+  </si>
+  <si>
+    <t>eb09-t03-0122</t>
+  </si>
+  <si>
+    <t>eb09-t03-0123</t>
+  </si>
+  <si>
+    <t>eb09-t03-0124</t>
+  </si>
+  <si>
+    <t>eb09-t03-0125</t>
+  </si>
+  <si>
+    <t>eb09-t03-0126</t>
+  </si>
+  <si>
+    <t>eb09-t03-0127</t>
+  </si>
+  <si>
+    <t>eb09-t03-0128</t>
+  </si>
+  <si>
+    <t>eb09-t03-0129</t>
+  </si>
+  <si>
+    <t>eb09-t03-0130</t>
+  </si>
+  <si>
+    <t>eb09-t03-0131</t>
+  </si>
+  <si>
+    <t>eb09-t03-0132</t>
+  </si>
+  <si>
+    <t>eb09-t03-0133</t>
+  </si>
+  <si>
+    <t>eb09-t03-0134</t>
+  </si>
+  <si>
+    <t>eb09-t03-0135</t>
+  </si>
+  <si>
+    <t>eb09-t03-0136</t>
+  </si>
+  <si>
+    <t>eb09-t03-0137</t>
+  </si>
+  <si>
+    <t>eb09-t03-0138</t>
+  </si>
+  <si>
+    <t>eb09-t03-0139</t>
+  </si>
+  <si>
+    <t>eb09-t03-0140</t>
+  </si>
+  <si>
+    <t>eb09-t03-0141</t>
+  </si>
+  <si>
+    <t>eb09-t03-0142</t>
+  </si>
+  <si>
+    <t>eb09-t03-0143</t>
+  </si>
+  <si>
+    <t>eb09-t03-0144</t>
+  </si>
+  <si>
+    <t>eb09-t03-0145</t>
+  </si>
+  <si>
+    <t>eb09-t03-0146</t>
+  </si>
+  <si>
+    <t>eb09-t03-0147</t>
+  </si>
+  <si>
+    <t>eb09-t03-0148</t>
+  </si>
+  <si>
+    <t>eb09-t03-0149</t>
+  </si>
+  <si>
+    <t>eb09-t03-0150</t>
+  </si>
+  <si>
+    <t>eb09-t03-0151</t>
+  </si>
+  <si>
+    <t>eb09-t03-0152</t>
+  </si>
+  <si>
+    <t>eb09-t03-0153</t>
+  </si>
+  <si>
+    <t>eb09-t03-0154</t>
+  </si>
+  <si>
+    <t>eb09-t03-0155</t>
+  </si>
+  <si>
+    <t>eb09-t03-0156</t>
+  </si>
+  <si>
+    <t>eb09-t03-0157</t>
+  </si>
+  <si>
+    <t>eb09-t03-0158</t>
+  </si>
+  <si>
+    <t>eb09-t03-0159</t>
+  </si>
+  <si>
+    <t>eb09-t03-0160</t>
+  </si>
+  <si>
+    <t>eb09-t03-0161</t>
+  </si>
+  <si>
+    <t>eb09-t03-0162</t>
+  </si>
+  <si>
+    <t>eb09-t03-0163</t>
+  </si>
+  <si>
+    <t>eb09-t03-0164</t>
+  </si>
+  <si>
+    <t>eb09-t03-0165</t>
+  </si>
+  <si>
+    <t>eb09-t03-0166</t>
+  </si>
+  <si>
+    <t>eb09-t03-0167</t>
+  </si>
+  <si>
+    <t>eb09-t03-0168</t>
+  </si>
+  <si>
+    <t>eb09-t03-0169</t>
+  </si>
+  <si>
+    <t>eb09-t03-0170</t>
+  </si>
+  <si>
+    <t>eb09-t03-0171</t>
+  </si>
+  <si>
+    <t>eb09-t03-0172</t>
+  </si>
+  <si>
+    <t>eb09-t03-0173</t>
+  </si>
+  <si>
+    <t>eb09-t03-0174</t>
+  </si>
+  <si>
+    <t>eb09-t03-0175</t>
+  </si>
+  <si>
+    <t>eb09-t03-0176</t>
+  </si>
+  <si>
+    <t>eb09-t03-0177</t>
+  </si>
+  <si>
+    <t>eb09-t03-0178</t>
+  </si>
+  <si>
+    <t>eb09-t03-0179</t>
+  </si>
+  <si>
+    <t>eb09-t03-0180</t>
+  </si>
+  <si>
+    <t>eb09-t03-0181</t>
+  </si>
+  <si>
+    <t>eb09-t03-0182</t>
+  </si>
+  <si>
+    <t>eb09-t03-0183</t>
+  </si>
+  <si>
+    <t>eb09-t03-0184</t>
+  </si>
+  <si>
+    <t>eb09-t03-0185</t>
+  </si>
+  <si>
+    <t>eb09-t03-0186</t>
+  </si>
+  <si>
+    <t>eb09-t03-0187</t>
+  </si>
+  <si>
+    <t>eb09-t03-0188</t>
+  </si>
+  <si>
+    <t>eb09-t03-0189</t>
+  </si>
+  <si>
+    <t>eb09-t03-0190</t>
+  </si>
+  <si>
+    <t>eb09-t03-0191</t>
+  </si>
+  <si>
+    <t>eb09-t03-0192</t>
+  </si>
+  <si>
+    <t>eb09-t03-0193</t>
+  </si>
+  <si>
+    <t>eb09-t03-0194</t>
+  </si>
+  <si>
+    <t>eb09-t03-0195</t>
+  </si>
+  <si>
+    <t>eb09-t03-0196</t>
+  </si>
+  <si>
+    <t>eb09-t03-0197</t>
+  </si>
+  <si>
+    <t>eb09-t03-0198</t>
+  </si>
+  <si>
+    <t>eb09-t03-0199</t>
+  </si>
+  <si>
+    <t>eb09-t03-0200</t>
+  </si>
+  <si>
+    <t>eb09-t03-0201</t>
+  </si>
+  <si>
+    <t>eb09-t03-0202</t>
+  </si>
+  <si>
+    <t>eb09-t03-0203</t>
+  </si>
+  <si>
+    <t>eb09-t03-0204</t>
+  </si>
+  <si>
+    <t>eb09-t03-0205</t>
+  </si>
+  <si>
+    <t>eb09-t03-0206</t>
+  </si>
+  <si>
+    <t>eb09-t03-0207</t>
+  </si>
+  <si>
+    <t>eb09-t03-0208</t>
+  </si>
+  <si>
+    <t>eb09-t03-0209</t>
+  </si>
+  <si>
+    <t>eb09-t03-0210</t>
+  </si>
+  <si>
+    <t>eb09-t03-0211</t>
+  </si>
+  <si>
+    <t>eb09-t03-0212</t>
+  </si>
+  <si>
+    <t>eb09-t03-0213</t>
+  </si>
+  <si>
+    <t>eb09-t03-0214</t>
+  </si>
+  <si>
+    <t>eb09-t03-0215</t>
+  </si>
+  <si>
+    <t>eb09-t03-0216</t>
+  </si>
+  <si>
+    <t>eb09-t03-0217</t>
+  </si>
+  <si>
+    <t>eb09-t03-0218</t>
+  </si>
+  <si>
+    <t>eb09-t03-0219</t>
+  </si>
+  <si>
+    <t>eb09-t03-0220</t>
+  </si>
+  <si>
+    <t>eb09-t03-0221</t>
+  </si>
+  <si>
+    <t>eb09-t03-0222</t>
+  </si>
+  <si>
+    <t>eb09-t03-0223</t>
+  </si>
+  <si>
+    <t>eb09-t03-0224</t>
+  </si>
+  <si>
+    <t>eb09-t03-0225</t>
+  </si>
+  <si>
+    <t>eb09-t03-0226</t>
+  </si>
+  <si>
+    <t>eb09-t03-0227</t>
+  </si>
+  <si>
+    <t>eb09-t03-0228</t>
+  </si>
+  <si>
+    <t>eb09-t03-0229</t>
+  </si>
+  <si>
+    <t>eb09-t03-0230</t>
+  </si>
+  <si>
+    <t>eb09-t03-0231</t>
+  </si>
+  <si>
+    <t>eb09-t03-0232</t>
+  </si>
+  <si>
+    <t>eb09-t03-0233</t>
+  </si>
+  <si>
+    <t>eb09-t03-0234</t>
+  </si>
+  <si>
+    <t>eb09-t03-0235</t>
+  </si>
+  <si>
+    <t>eb09-t03-0236</t>
+  </si>
+  <si>
+    <t>eb09-t03-0237</t>
+  </si>
+  <si>
+    <t>eb09-t03-0238</t>
   </si>
 </sst>
 </file>
@@ -879,7 +1599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -928,6 +1648,9 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1213,8 +1936,8 @@
   <dimension ref="A1:L245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L228" sqref="L228"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +2003,15 @@
       <c r="D2">
         <v>477</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43608</v>
+      </c>
       <c r="H2" s="12"/>
       <c r="I2" s="4"/>
       <c r="J2" s="17"/>
@@ -1298,7 +2029,9 @@
       <c r="D3">
         <v>478</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="18" t="s">
+        <v>272</v>
+      </c>
       <c r="H3" s="12"/>
       <c r="I3" s="4"/>
       <c r="J3" s="17"/>
@@ -1316,7 +2049,9 @@
       <c r="D4">
         <v>479</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="18" t="s">
+        <v>273</v>
+      </c>
       <c r="H4" s="12"/>
       <c r="I4" s="4"/>
       <c r="J4" s="17"/>
@@ -1334,7 +2069,9 @@
       <c r="D5">
         <v>480</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="18" t="s">
+        <v>274</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="4"/>
@@ -1353,7 +2090,9 @@
       <c r="D6">
         <v>481</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="18" t="s">
+        <v>275</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="4"/>
       <c r="J6" s="17"/>
@@ -1371,7 +2110,9 @@
       <c r="D7">
         <v>482</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="18" t="s">
+        <v>276</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="4"/>
       <c r="J7" s="17"/>
@@ -1389,7 +2130,9 @@
       <c r="D8">
         <v>483</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="18" t="s">
+        <v>277</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="4"/>
       <c r="J8" s="17"/>
@@ -1407,7 +2150,9 @@
       <c r="D9">
         <v>484</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="18" t="s">
+        <v>278</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="4"/>
       <c r="J9" s="17"/>
@@ -1425,7 +2170,9 @@
       <c r="D10">
         <v>485</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="18" t="s">
+        <v>279</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="4"/>
       <c r="J10" s="17"/>
@@ -1443,7 +2190,9 @@
       <c r="D11">
         <v>486</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="18" t="s">
+        <v>280</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="4"/>
       <c r="J11" s="17"/>
@@ -1463,7 +2212,9 @@
       <c r="D12">
         <v>487</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="18" t="s">
+        <v>281</v>
+      </c>
       <c r="H12" s="12"/>
       <c r="I12" s="4"/>
       <c r="J12" s="17"/>
@@ -1481,7 +2232,9 @@
       <c r="D13">
         <v>488</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="18" t="s">
+        <v>282</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="4"/>
       <c r="J13" s="17"/>
@@ -1499,7 +2252,9 @@
       <c r="D14">
         <v>489</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="18" t="s">
+        <v>283</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="4"/>
       <c r="J14" s="17"/>
@@ -1517,7 +2272,9 @@
       <c r="D15">
         <v>490</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="18" t="s">
+        <v>284</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="4"/>
       <c r="J15" s="17"/>
@@ -1535,7 +2292,9 @@
       <c r="D16">
         <v>491</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="18" t="s">
+        <v>285</v>
+      </c>
       <c r="H16" s="12"/>
       <c r="I16" s="4"/>
       <c r="J16" s="17"/>
@@ -1553,7 +2312,9 @@
       <c r="D17">
         <v>492</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="18" t="s">
+        <v>286</v>
+      </c>
       <c r="H17" s="12"/>
       <c r="I17" s="4"/>
       <c r="J17" s="17"/>
@@ -1571,7 +2332,9 @@
       <c r="D18">
         <v>493</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="18" t="s">
+        <v>287</v>
+      </c>
       <c r="H18" s="12"/>
       <c r="I18" s="4"/>
       <c r="J18" s="17"/>
@@ -1589,7 +2352,9 @@
       <c r="D19">
         <v>494</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="18" t="s">
+        <v>288</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="4"/>
       <c r="J19" s="17"/>
@@ -1607,7 +2372,9 @@
       <c r="D20">
         <v>495</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="18" t="s">
+        <v>289</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="4"/>
       <c r="J20" s="17"/>
@@ -1625,7 +2392,9 @@
       <c r="D21">
         <v>496</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="18" t="s">
+        <v>290</v>
+      </c>
       <c r="H21" s="12"/>
       <c r="I21" s="4"/>
       <c r="J21" s="17"/>
@@ -1643,7 +2412,9 @@
       <c r="D22">
         <v>497</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="18" t="s">
+        <v>291</v>
+      </c>
       <c r="H22" s="12"/>
       <c r="I22" s="4"/>
       <c r="J22" s="17"/>
@@ -1661,7 +2432,9 @@
       <c r="D23">
         <v>498</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="18" t="s">
+        <v>292</v>
+      </c>
       <c r="H23" s="12"/>
       <c r="I23" s="4"/>
       <c r="J23" s="17"/>
@@ -1679,7 +2452,9 @@
       <c r="D24">
         <v>499</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="18" t="s">
+        <v>293</v>
+      </c>
       <c r="H24" s="12"/>
       <c r="I24" s="4"/>
       <c r="J24" s="17"/>
@@ -1697,7 +2472,9 @@
       <c r="D25">
         <v>500</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="18" t="s">
+        <v>294</v>
+      </c>
       <c r="H25" s="12"/>
       <c r="I25" s="4"/>
       <c r="J25" s="17"/>
@@ -1715,7 +2492,9 @@
       <c r="D26">
         <v>501</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="18" t="s">
+        <v>295</v>
+      </c>
       <c r="H26" s="12"/>
       <c r="I26" s="4"/>
       <c r="J26" s="17"/>
@@ -1733,7 +2512,9 @@
       <c r="D27">
         <v>502</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="18" t="s">
+        <v>296</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="4"/>
       <c r="J27" s="17"/>
@@ -1751,7 +2532,9 @@
       <c r="D28">
         <v>503</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="18" t="s">
+        <v>297</v>
+      </c>
       <c r="H28" s="12"/>
       <c r="I28" s="4"/>
       <c r="J28" s="17"/>
@@ -1769,7 +2552,9 @@
       <c r="D29">
         <v>504</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="18" t="s">
+        <v>298</v>
+      </c>
       <c r="H29" s="12"/>
       <c r="I29" s="4"/>
       <c r="J29" s="17"/>
@@ -1787,7 +2572,9 @@
       <c r="D30">
         <v>505</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="18" t="s">
+        <v>299</v>
+      </c>
       <c r="H30" s="12"/>
       <c r="I30" s="4"/>
       <c r="J30" s="17"/>
@@ -1805,7 +2592,9 @@
       <c r="D31">
         <v>506</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="18" t="s">
+        <v>300</v>
+      </c>
       <c r="H31" s="12"/>
       <c r="I31" s="4"/>
       <c r="J31" s="17"/>
@@ -1823,7 +2612,9 @@
       <c r="D32">
         <v>507</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="18" t="s">
+        <v>301</v>
+      </c>
       <c r="H32" s="12"/>
       <c r="I32" s="4"/>
       <c r="J32" s="17"/>
@@ -1841,7 +2632,9 @@
       <c r="D33">
         <v>508</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="H33" s="12"/>
       <c r="I33" s="4"/>
       <c r="J33" s="17"/>
@@ -1859,7 +2652,9 @@
       <c r="D34">
         <v>509</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="H34" s="12"/>
       <c r="I34" s="4"/>
       <c r="J34" s="17"/>
@@ -1877,7 +2672,9 @@
       <c r="D35">
         <v>510</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="H35" s="12"/>
       <c r="I35" s="4"/>
       <c r="J35" s="17"/>
@@ -1895,7 +2692,9 @@
       <c r="D36">
         <v>511</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="18" t="s">
+        <v>305</v>
+      </c>
       <c r="H36" s="12"/>
       <c r="I36" s="4"/>
       <c r="J36" s="17"/>
@@ -1913,7 +2712,9 @@
       <c r="D37">
         <v>512</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="18" t="s">
+        <v>306</v>
+      </c>
       <c r="H37" s="12"/>
       <c r="I37" s="4"/>
       <c r="J37" s="17"/>
@@ -1931,7 +2732,9 @@
       <c r="D38">
         <v>513</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="18" t="s">
+        <v>307</v>
+      </c>
       <c r="H38" s="12"/>
       <c r="I38" s="4"/>
       <c r="J38" s="17"/>
@@ -1949,7 +2752,9 @@
       <c r="D39">
         <v>514</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="18" t="s">
+        <v>308</v>
+      </c>
       <c r="H39" s="12"/>
       <c r="I39" s="4"/>
       <c r="J39" s="17"/>
@@ -1967,7 +2772,9 @@
       <c r="D40">
         <v>515</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="18" t="s">
+        <v>309</v>
+      </c>
       <c r="H40" s="12"/>
       <c r="I40" s="4"/>
       <c r="J40" s="17"/>
@@ -1985,7 +2792,9 @@
       <c r="D41">
         <v>516</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="18" t="s">
+        <v>310</v>
+      </c>
       <c r="H41" s="12"/>
       <c r="I41" s="4"/>
       <c r="J41" s="17"/>
@@ -2003,7 +2812,9 @@
       <c r="D42">
         <v>517</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="18" t="s">
+        <v>311</v>
+      </c>
       <c r="H42" s="12"/>
       <c r="I42" s="4"/>
       <c r="J42" s="17"/>
@@ -2021,7 +2832,9 @@
       <c r="D43">
         <v>518</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="18" t="s">
+        <v>312</v>
+      </c>
       <c r="H43" s="12"/>
       <c r="I43" s="4"/>
       <c r="J43" s="17"/>
@@ -2039,7 +2852,9 @@
       <c r="D44">
         <v>519</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="18" t="s">
+        <v>313</v>
+      </c>
       <c r="H44" s="12"/>
       <c r="I44" s="4"/>
       <c r="J44" s="17"/>
@@ -2059,7 +2874,9 @@
       <c r="D45">
         <v>520</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="18" t="s">
+        <v>314</v>
+      </c>
       <c r="H45" s="12"/>
       <c r="I45" s="4"/>
       <c r="J45" s="17"/>
@@ -2079,7 +2896,9 @@
       <c r="D46">
         <v>521</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="18" t="s">
+        <v>315</v>
+      </c>
       <c r="H46" s="12"/>
       <c r="I46" s="4"/>
       <c r="J46" s="17"/>
@@ -2097,7 +2916,9 @@
       <c r="D47">
         <v>522</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="18" t="s">
+        <v>316</v>
+      </c>
       <c r="H47" s="12"/>
       <c r="I47" s="4"/>
       <c r="J47" s="17"/>
@@ -2115,7 +2936,9 @@
       <c r="D48">
         <v>523</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="18" t="s">
+        <v>317</v>
+      </c>
       <c r="H48" s="12"/>
       <c r="I48" s="4"/>
       <c r="J48" s="17"/>
@@ -2133,7 +2956,9 @@
       <c r="D49">
         <v>524</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="18" t="s">
+        <v>318</v>
+      </c>
       <c r="H49" s="12"/>
       <c r="I49" s="4"/>
       <c r="J49" s="17"/>
@@ -2151,7 +2976,9 @@
       <c r="D50">
         <v>525</v>
       </c>
-      <c r="E50" s="4"/>
+      <c r="E50" s="18" t="s">
+        <v>319</v>
+      </c>
       <c r="H50" s="12"/>
       <c r="I50" s="4"/>
       <c r="J50" s="17"/>
@@ -2169,7 +2996,9 @@
       <c r="D51">
         <v>526</v>
       </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="18" t="s">
+        <v>320</v>
+      </c>
       <c r="H51" s="12"/>
       <c r="I51" s="4"/>
       <c r="J51" s="17"/>
@@ -2187,7 +3016,9 @@
       <c r="D52">
         <v>527</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" s="18" t="s">
+        <v>321</v>
+      </c>
       <c r="H52" s="12"/>
       <c r="I52" s="4"/>
       <c r="J52" s="17"/>
@@ -2205,7 +3036,9 @@
       <c r="D53">
         <v>528</v>
       </c>
-      <c r="E53" s="4"/>
+      <c r="E53" s="18" t="s">
+        <v>322</v>
+      </c>
       <c r="H53" s="12"/>
       <c r="I53" s="4"/>
       <c r="J53" s="17"/>
@@ -2223,7 +3056,9 @@
       <c r="D54">
         <v>529</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="18" t="s">
+        <v>323</v>
+      </c>
       <c r="H54" s="12"/>
       <c r="I54" s="4"/>
       <c r="J54" s="17"/>
@@ -2241,7 +3076,9 @@
       <c r="D55">
         <v>530</v>
       </c>
-      <c r="E55" s="4"/>
+      <c r="E55" s="18" t="s">
+        <v>324</v>
+      </c>
       <c r="H55" s="12"/>
       <c r="I55" s="4"/>
       <c r="J55" s="17"/>
@@ -2259,7 +3096,9 @@
       <c r="D56">
         <v>531</v>
       </c>
-      <c r="E56" s="4"/>
+      <c r="E56" s="18" t="s">
+        <v>325</v>
+      </c>
       <c r="H56" s="12"/>
       <c r="I56" s="4"/>
       <c r="J56" s="17"/>
@@ -2277,7 +3116,9 @@
       <c r="D57">
         <v>532</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="18" t="s">
+        <v>326</v>
+      </c>
       <c r="H57" s="12"/>
       <c r="I57" s="4"/>
       <c r="J57" s="17"/>
@@ -2295,7 +3136,9 @@
       <c r="D58">
         <v>533</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="18" t="s">
+        <v>327</v>
+      </c>
       <c r="H58" s="12"/>
       <c r="I58" s="4"/>
       <c r="J58" s="17"/>
@@ -2313,7 +3156,9 @@
       <c r="D59">
         <v>534</v>
       </c>
-      <c r="E59" s="4"/>
+      <c r="E59" s="18" t="s">
+        <v>328</v>
+      </c>
       <c r="H59" s="12"/>
       <c r="I59" s="4"/>
       <c r="J59" s="17"/>
@@ -2331,7 +3176,9 @@
       <c r="D60">
         <v>535</v>
       </c>
-      <c r="E60" s="4"/>
+      <c r="E60" s="18" t="s">
+        <v>329</v>
+      </c>
       <c r="H60" s="12"/>
       <c r="I60" s="4"/>
       <c r="J60" s="17"/>
@@ -2349,7 +3196,9 @@
       <c r="D61">
         <v>536</v>
       </c>
-      <c r="E61" s="4"/>
+      <c r="E61" s="18" t="s">
+        <v>330</v>
+      </c>
       <c r="H61" s="12"/>
       <c r="I61" s="4"/>
       <c r="J61" s="17"/>
@@ -2367,7 +3216,9 @@
       <c r="D62">
         <v>537</v>
       </c>
-      <c r="E62" s="4"/>
+      <c r="E62" s="18" t="s">
+        <v>331</v>
+      </c>
       <c r="H62" s="12"/>
       <c r="I62" s="4"/>
       <c r="J62" s="17"/>
@@ -2385,7 +3236,9 @@
       <c r="D63">
         <v>538</v>
       </c>
-      <c r="E63" s="4"/>
+      <c r="E63" s="18" t="s">
+        <v>332</v>
+      </c>
       <c r="H63" s="12"/>
       <c r="I63" s="4"/>
       <c r="J63" s="17"/>
@@ -2403,7 +3256,9 @@
       <c r="D64">
         <v>539</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="18" t="s">
+        <v>333</v>
+      </c>
       <c r="H64" s="12"/>
       <c r="I64" s="4"/>
       <c r="J64" s="17"/>
@@ -2421,7 +3276,9 @@
       <c r="D65">
         <v>540</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="E65" s="18" t="s">
+        <v>334</v>
+      </c>
       <c r="H65" s="12"/>
       <c r="I65" s="4"/>
       <c r="J65" s="17"/>
@@ -2439,7 +3296,9 @@
       <c r="D66">
         <v>541</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="E66" s="18" t="s">
+        <v>335</v>
+      </c>
       <c r="H66" s="12"/>
       <c r="I66" s="4"/>
       <c r="J66" s="17"/>
@@ -2457,7 +3316,9 @@
       <c r="D67">
         <v>542</v>
       </c>
-      <c r="E67" s="4"/>
+      <c r="E67" s="18" t="s">
+        <v>336</v>
+      </c>
       <c r="H67" s="12"/>
       <c r="I67" s="4"/>
       <c r="J67" s="17"/>
@@ -2475,7 +3336,9 @@
       <c r="D68">
         <v>543</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="18" t="s">
+        <v>337</v>
+      </c>
       <c r="H68" s="12"/>
       <c r="I68" s="4"/>
       <c r="J68" s="17"/>
@@ -2493,7 +3356,9 @@
       <c r="D69">
         <v>544</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="E69" s="18" t="s">
+        <v>338</v>
+      </c>
       <c r="F69" s="3"/>
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
@@ -2513,7 +3378,9 @@
       <c r="D70">
         <v>545</v>
       </c>
-      <c r="E70" s="4"/>
+      <c r="E70" s="18" t="s">
+        <v>339</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
@@ -2533,7 +3400,9 @@
       <c r="D71">
         <v>546</v>
       </c>
-      <c r="E71" s="4"/>
+      <c r="E71" s="18" t="s">
+        <v>340</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
@@ -2553,7 +3422,9 @@
       <c r="D72">
         <v>547</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="E72" s="18" t="s">
+        <v>341</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
@@ -2573,7 +3444,9 @@
       <c r="D73">
         <v>548</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="E73" s="18" t="s">
+        <v>342</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
@@ -2593,7 +3466,9 @@
       <c r="D74">
         <v>549</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="E74" s="18" t="s">
+        <v>343</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
@@ -2613,7 +3488,9 @@
       <c r="D75">
         <v>550</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="E75" s="18" t="s">
+        <v>344</v>
+      </c>
       <c r="F75" s="3"/>
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
@@ -2633,7 +3510,9 @@
       <c r="D76">
         <v>551</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="E76" s="18" t="s">
+        <v>345</v>
+      </c>
       <c r="F76" s="3"/>
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
@@ -2653,7 +3532,9 @@
       <c r="D77">
         <v>552</v>
       </c>
-      <c r="E77" s="4"/>
+      <c r="E77" s="18" t="s">
+        <v>346</v>
+      </c>
       <c r="F77" s="3"/>
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
@@ -2673,7 +3554,9 @@
       <c r="D78">
         <v>553</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="E78" s="18" t="s">
+        <v>347</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
@@ -2693,7 +3576,9 @@
       <c r="D79">
         <v>554</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="E79" s="18" t="s">
+        <v>348</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
@@ -2713,7 +3598,9 @@
       <c r="D80">
         <v>555</v>
       </c>
-      <c r="E80" s="4"/>
+      <c r="E80" s="18" t="s">
+        <v>349</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
@@ -2733,7 +3620,9 @@
       <c r="D81">
         <v>556</v>
       </c>
-      <c r="E81" s="4"/>
+      <c r="E81" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
@@ -2753,7 +3642,9 @@
       <c r="D82">
         <v>557</v>
       </c>
-      <c r="E82" s="4"/>
+      <c r="E82" s="18" t="s">
+        <v>351</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
@@ -2773,7 +3664,9 @@
       <c r="D83">
         <v>558</v>
       </c>
-      <c r="E83" s="4"/>
+      <c r="E83" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
@@ -2793,7 +3686,9 @@
       <c r="D84">
         <v>559</v>
       </c>
-      <c r="E84" s="4"/>
+      <c r="E84" s="18" t="s">
+        <v>353</v>
+      </c>
       <c r="F84" s="3"/>
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
@@ -2813,7 +3708,9 @@
       <c r="D85">
         <v>560</v>
       </c>
-      <c r="E85" s="4"/>
+      <c r="E85" s="18" t="s">
+        <v>354</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
@@ -2835,7 +3732,9 @@
       <c r="D86">
         <v>561</v>
       </c>
-      <c r="E86" s="4"/>
+      <c r="E86" s="18" t="s">
+        <v>355</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
@@ -2855,7 +3754,9 @@
       <c r="D87">
         <v>562</v>
       </c>
-      <c r="E87" s="4"/>
+      <c r="E87" s="18" t="s">
+        <v>356</v>
+      </c>
       <c r="F87" s="3"/>
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
@@ -2875,7 +3776,9 @@
       <c r="D88">
         <v>563</v>
       </c>
-      <c r="E88" s="4"/>
+      <c r="E88" s="18" t="s">
+        <v>357</v>
+      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
@@ -2895,7 +3798,9 @@
       <c r="D89">
         <v>564</v>
       </c>
-      <c r="E89" s="4"/>
+      <c r="E89" s="18" t="s">
+        <v>358</v>
+      </c>
       <c r="F89" s="3"/>
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
@@ -2917,7 +3822,9 @@
       <c r="D90">
         <v>565</v>
       </c>
-      <c r="E90" s="4"/>
+      <c r="E90" s="18" t="s">
+        <v>359</v>
+      </c>
       <c r="F90" s="3"/>
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
@@ -2939,7 +3846,9 @@
       <c r="D91">
         <v>566</v>
       </c>
-      <c r="E91" s="4"/>
+      <c r="E91" s="18" t="s">
+        <v>360</v>
+      </c>
       <c r="F91" s="5"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -2961,7 +3870,9 @@
       <c r="D92">
         <v>567</v>
       </c>
-      <c r="E92" s="4"/>
+      <c r="E92" s="18" t="s">
+        <v>361</v>
+      </c>
       <c r="F92" s="5"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -2983,7 +3894,9 @@
       <c r="D93">
         <v>568</v>
       </c>
-      <c r="E93" s="4"/>
+      <c r="E93" s="18" t="s">
+        <v>362</v>
+      </c>
       <c r="F93" s="3"/>
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
@@ -3005,7 +3918,9 @@
       <c r="D94">
         <v>569</v>
       </c>
-      <c r="E94" s="4"/>
+      <c r="E94" s="18" t="s">
+        <v>363</v>
+      </c>
       <c r="F94" s="3"/>
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
@@ -3027,7 +3942,9 @@
       <c r="D95">
         <v>570</v>
       </c>
-      <c r="E95" s="4"/>
+      <c r="E95" s="18" t="s">
+        <v>364</v>
+      </c>
       <c r="F95" s="3"/>
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
@@ -3049,7 +3966,9 @@
       <c r="D96">
         <v>571</v>
       </c>
-      <c r="E96" s="4"/>
+      <c r="E96" s="18" t="s">
+        <v>365</v>
+      </c>
       <c r="F96" s="3"/>
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
@@ -3071,7 +3990,9 @@
       <c r="D97">
         <v>572</v>
       </c>
-      <c r="E97" s="4"/>
+      <c r="E97" s="18" t="s">
+        <v>366</v>
+      </c>
       <c r="F97" s="3"/>
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
@@ -3093,7 +4014,9 @@
       <c r="D98">
         <v>573</v>
       </c>
-      <c r="E98" s="4"/>
+      <c r="E98" s="18" t="s">
+        <v>367</v>
+      </c>
       <c r="F98" s="3"/>
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
@@ -3115,7 +4038,9 @@
       <c r="D99">
         <v>574</v>
       </c>
-      <c r="E99" s="4"/>
+      <c r="E99" s="18" t="s">
+        <v>368</v>
+      </c>
       <c r="F99" s="3"/>
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
@@ -3175,7 +4100,9 @@
       <c r="D102">
         <v>575</v>
       </c>
-      <c r="E102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="F102" s="3"/>
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
@@ -3195,7 +4122,9 @@
       <c r="D103">
         <v>576</v>
       </c>
-      <c r="E103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="F103" s="3"/>
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
@@ -3215,7 +4144,9 @@
       <c r="D104">
         <v>577</v>
       </c>
-      <c r="E104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>371</v>
+      </c>
       <c r="F104" s="3"/>
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
@@ -3235,7 +4166,9 @@
       <c r="D105">
         <v>578</v>
       </c>
-      <c r="E105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="F105" s="3"/>
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
@@ -3255,7 +4188,9 @@
       <c r="D106">
         <v>579</v>
       </c>
-      <c r="E106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>373</v>
+      </c>
       <c r="F106" s="3"/>
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
@@ -3275,7 +4210,9 @@
       <c r="D107">
         <v>580</v>
       </c>
-      <c r="E107" s="4"/>
+      <c r="E107" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
@@ -3295,7 +4232,9 @@
       <c r="D108">
         <v>581</v>
       </c>
-      <c r="E108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>375</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
@@ -3315,7 +4254,9 @@
       <c r="D109">
         <v>582</v>
       </c>
-      <c r="E109" s="4"/>
+      <c r="E109" s="4" t="s">
+        <v>376</v>
+      </c>
       <c r="F109" s="3"/>
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
@@ -3335,7 +4276,9 @@
       <c r="D110">
         <v>583</v>
       </c>
-      <c r="E110" s="4"/>
+      <c r="E110" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="F110" s="3"/>
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
@@ -3355,7 +4298,9 @@
       <c r="D111">
         <v>584</v>
       </c>
-      <c r="E111" s="4"/>
+      <c r="E111" s="4" t="s">
+        <v>378</v>
+      </c>
       <c r="F111" s="3"/>
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
@@ -3377,7 +4322,9 @@
       <c r="D112">
         <v>585</v>
       </c>
-      <c r="E112" s="4"/>
+      <c r="E112" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="F112" s="3"/>
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
@@ -3397,7 +4344,9 @@
       <c r="D113">
         <v>586</v>
       </c>
-      <c r="E113" s="4"/>
+      <c r="E113" s="4" t="s">
+        <v>380</v>
+      </c>
       <c r="F113" s="3"/>
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
@@ -3417,7 +4366,9 @@
       <c r="D114">
         <v>587</v>
       </c>
-      <c r="E114" s="4"/>
+      <c r="E114" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="F114" s="3"/>
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
@@ -3439,7 +4390,9 @@
       <c r="D115">
         <v>588</v>
       </c>
-      <c r="E115" s="4"/>
+      <c r="E115" s="4" t="s">
+        <v>382</v>
+      </c>
       <c r="F115" s="3"/>
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
@@ -3459,7 +4412,9 @@
       <c r="D116">
         <v>589</v>
       </c>
-      <c r="E116" s="4"/>
+      <c r="E116" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="F116" s="3"/>
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
@@ -3479,7 +4434,9 @@
       <c r="D117">
         <v>590</v>
       </c>
-      <c r="E117" s="4"/>
+      <c r="E117" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="F117" s="3"/>
       <c r="G117" s="11"/>
       <c r="H117" s="12"/>
@@ -3499,7 +4456,9 @@
       <c r="D118">
         <v>591</v>
       </c>
-      <c r="E118" s="4"/>
+      <c r="E118" s="4" t="s">
+        <v>385</v>
+      </c>
       <c r="F118" s="3"/>
       <c r="G118" s="11"/>
       <c r="H118" s="12"/>
@@ -3519,7 +4478,9 @@
       <c r="D119">
         <v>592</v>
       </c>
-      <c r="E119" s="4"/>
+      <c r="E119" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="F119" s="3"/>
       <c r="G119" s="11"/>
       <c r="H119" s="12"/>
@@ -3539,7 +4500,9 @@
       <c r="D120">
         <v>593</v>
       </c>
-      <c r="E120" s="4"/>
+      <c r="E120" s="4" t="s">
+        <v>387</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="11"/>
       <c r="H120" s="12"/>
@@ -3559,7 +4522,9 @@
       <c r="D121">
         <v>594</v>
       </c>
-      <c r="E121" s="4"/>
+      <c r="E121" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="11"/>
       <c r="H121" s="12"/>
@@ -3579,7 +4544,9 @@
       <c r="D122">
         <v>595</v>
       </c>
-      <c r="E122" s="4"/>
+      <c r="E122" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="F122" s="3"/>
       <c r="G122" s="11"/>
       <c r="H122" s="12"/>
@@ -3599,7 +4566,9 @@
       <c r="D123">
         <v>596</v>
       </c>
-      <c r="E123" s="4"/>
+      <c r="E123" s="4" t="s">
+        <v>390</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="G123" s="11"/>
       <c r="H123" s="12"/>
@@ -3619,7 +4588,9 @@
       <c r="D124">
         <v>597</v>
       </c>
-      <c r="E124" s="4"/>
+      <c r="E124" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="F124" s="3"/>
       <c r="G124" s="11"/>
       <c r="H124" s="12"/>
@@ -3639,7 +4610,9 @@
       <c r="D125">
         <v>598</v>
       </c>
-      <c r="E125" s="4"/>
+      <c r="E125" s="4" t="s">
+        <v>392</v>
+      </c>
       <c r="F125" s="3"/>
       <c r="G125" s="11"/>
       <c r="H125" s="12"/>
@@ -3659,7 +4632,9 @@
       <c r="D126">
         <v>599</v>
       </c>
-      <c r="E126" s="4"/>
+      <c r="E126" s="4" t="s">
+        <v>393</v>
+      </c>
       <c r="F126" s="3"/>
       <c r="G126" s="11"/>
       <c r="H126" s="12"/>
@@ -3679,7 +4654,9 @@
       <c r="D127">
         <v>600</v>
       </c>
-      <c r="E127" s="4"/>
+      <c r="E127" s="4" t="s">
+        <v>394</v>
+      </c>
       <c r="F127" s="3"/>
       <c r="G127" s="11"/>
       <c r="H127" s="12"/>
@@ -3699,7 +4676,9 @@
       <c r="D128">
         <v>601</v>
       </c>
-      <c r="E128" s="4"/>
+      <c r="E128" s="4" t="s">
+        <v>395</v>
+      </c>
       <c r="F128" s="3"/>
       <c r="G128" s="11"/>
       <c r="H128" s="12"/>
@@ -3719,7 +4698,9 @@
       <c r="D129">
         <v>602</v>
       </c>
-      <c r="E129" s="4"/>
+      <c r="E129" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="F129" s="3"/>
       <c r="G129" s="11"/>
       <c r="H129" s="12"/>
@@ -3739,7 +4720,9 @@
       <c r="D130">
         <v>603</v>
       </c>
-      <c r="E130" s="4"/>
+      <c r="E130" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="11"/>
       <c r="H130" s="12"/>
@@ -3759,7 +4742,9 @@
       <c r="D131">
         <v>604</v>
       </c>
-      <c r="E131" s="4"/>
+      <c r="E131" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="F131" s="3"/>
       <c r="G131" s="11"/>
       <c r="H131" s="12"/>
@@ -3779,7 +4764,9 @@
       <c r="D132">
         <v>605</v>
       </c>
-      <c r="E132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>399</v>
+      </c>
       <c r="F132" s="3"/>
       <c r="G132" s="11"/>
       <c r="H132" s="12"/>
@@ -3799,7 +4786,9 @@
       <c r="D133">
         <v>606</v>
       </c>
-      <c r="E133" s="4"/>
+      <c r="E133" s="4" t="s">
+        <v>400</v>
+      </c>
       <c r="F133" s="3"/>
       <c r="G133" s="11"/>
       <c r="H133" s="12"/>
@@ -3819,7 +4808,9 @@
       <c r="D134">
         <v>607</v>
       </c>
-      <c r="E134" s="4"/>
+      <c r="E134" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="F134" s="3"/>
       <c r="G134" s="11"/>
       <c r="H134" s="12"/>
@@ -3839,7 +4830,9 @@
       <c r="D135">
         <v>608</v>
       </c>
-      <c r="E135" s="4"/>
+      <c r="E135" s="4" t="s">
+        <v>402</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="11"/>
       <c r="H135" s="12"/>
@@ -3859,7 +4852,9 @@
       <c r="D136">
         <v>609</v>
       </c>
-      <c r="E136" s="4"/>
+      <c r="E136" s="4" t="s">
+        <v>403</v>
+      </c>
       <c r="F136" s="3"/>
       <c r="G136" s="11"/>
       <c r="H136" s="12"/>
@@ -3879,7 +4874,9 @@
       <c r="D137">
         <v>610</v>
       </c>
-      <c r="E137" s="4"/>
+      <c r="E137" s="4" t="s">
+        <v>404</v>
+      </c>
       <c r="F137" s="3"/>
       <c r="G137" s="11"/>
       <c r="H137" s="12"/>
@@ -3899,7 +4896,9 @@
       <c r="D138">
         <v>611</v>
       </c>
-      <c r="E138" s="4"/>
+      <c r="E138" s="4" t="s">
+        <v>405</v>
+      </c>
       <c r="F138" s="3"/>
       <c r="G138" s="11"/>
       <c r="H138" s="12"/>
@@ -3919,7 +4918,9 @@
       <c r="D139">
         <v>612</v>
       </c>
-      <c r="E139" s="4"/>
+      <c r="E139" s="4" t="s">
+        <v>406</v>
+      </c>
       <c r="F139" s="3"/>
       <c r="G139" s="11"/>
       <c r="H139" s="12"/>
@@ -3939,7 +4940,9 @@
       <c r="D140">
         <v>613</v>
       </c>
-      <c r="E140" s="4"/>
+      <c r="E140" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="F140" s="3"/>
       <c r="G140" s="11"/>
       <c r="H140" s="12"/>
@@ -3959,7 +4962,9 @@
       <c r="D141">
         <v>614</v>
       </c>
-      <c r="E141" s="4"/>
+      <c r="E141" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="F141" s="5"/>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
@@ -3979,7 +4984,9 @@
       <c r="D142">
         <v>615</v>
       </c>
-      <c r="E142" s="4"/>
+      <c r="E142" s="4" t="s">
+        <v>409</v>
+      </c>
       <c r="F142" s="5"/>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
@@ -3999,7 +5006,9 @@
       <c r="D143">
         <v>616</v>
       </c>
-      <c r="E143" s="4"/>
+      <c r="E143" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="F143" s="5"/>
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
@@ -4019,7 +5028,9 @@
       <c r="D144">
         <v>617</v>
       </c>
-      <c r="E144" s="4"/>
+      <c r="E144" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="F144" s="5"/>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
@@ -4039,7 +5050,9 @@
       <c r="D145">
         <v>618</v>
       </c>
-      <c r="E145" s="4"/>
+      <c r="E145" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="F145" s="3"/>
       <c r="G145" s="11"/>
       <c r="H145" s="12"/>
@@ -4059,7 +5072,9 @@
       <c r="D146">
         <v>619</v>
       </c>
-      <c r="E146" s="4"/>
+      <c r="E146" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="F146" s="3"/>
       <c r="G146" s="11"/>
       <c r="H146" s="12"/>
@@ -4079,7 +5094,9 @@
       <c r="D147">
         <v>620</v>
       </c>
-      <c r="E147" s="4"/>
+      <c r="E147" s="4" t="s">
+        <v>414</v>
+      </c>
       <c r="F147" s="3"/>
       <c r="G147" s="11"/>
       <c r="H147" s="12"/>
@@ -4099,7 +5116,9 @@
       <c r="D148">
         <v>621</v>
       </c>
-      <c r="E148" s="4"/>
+      <c r="E148" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="F148" s="3"/>
       <c r="G148" s="11"/>
       <c r="H148" s="12"/>
@@ -4119,7 +5138,9 @@
       <c r="D149">
         <v>622</v>
       </c>
-      <c r="E149" s="4"/>
+      <c r="E149" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="F149" s="3"/>
       <c r="G149" s="11"/>
       <c r="H149" s="12"/>
@@ -4139,7 +5160,9 @@
       <c r="D150">
         <v>623</v>
       </c>
-      <c r="E150" s="4"/>
+      <c r="E150" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="F150" s="3"/>
       <c r="G150" s="11"/>
       <c r="H150" s="12"/>
@@ -4159,7 +5182,9 @@
       <c r="D151">
         <v>624</v>
       </c>
-      <c r="E151" s="4"/>
+      <c r="E151" s="4" t="s">
+        <v>418</v>
+      </c>
       <c r="F151" s="3"/>
       <c r="G151" s="11"/>
       <c r="H151" s="12"/>
@@ -4179,7 +5204,9 @@
       <c r="D152">
         <v>625</v>
       </c>
-      <c r="E152" s="4"/>
+      <c r="E152" s="4" t="s">
+        <v>419</v>
+      </c>
       <c r="F152" s="3"/>
       <c r="G152" s="11"/>
       <c r="H152" s="12"/>
@@ -4199,7 +5226,9 @@
       <c r="D153">
         <v>626</v>
       </c>
-      <c r="E153" s="4"/>
+      <c r="E153" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="F153" s="3"/>
       <c r="G153" s="11"/>
       <c r="H153" s="12"/>
@@ -4219,7 +5248,9 @@
       <c r="D154">
         <v>627</v>
       </c>
-      <c r="E154" s="4"/>
+      <c r="E154" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="F154" s="3"/>
       <c r="G154" s="11"/>
       <c r="H154" s="12"/>
@@ -4239,7 +5270,9 @@
       <c r="D155">
         <v>628</v>
       </c>
-      <c r="E155" s="4"/>
+      <c r="E155" s="4" t="s">
+        <v>422</v>
+      </c>
       <c r="F155" s="3"/>
       <c r="G155" s="11"/>
       <c r="H155" s="12"/>
@@ -4259,7 +5292,9 @@
       <c r="D156">
         <v>629</v>
       </c>
-      <c r="E156" s="4"/>
+      <c r="E156" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="F156" s="3"/>
       <c r="G156" s="11"/>
       <c r="H156" s="12"/>
@@ -4279,7 +5314,9 @@
       <c r="D157">
         <v>630</v>
       </c>
-      <c r="E157" s="4"/>
+      <c r="E157" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="F157" s="3"/>
       <c r="G157" s="11"/>
       <c r="H157" s="12"/>
@@ -4299,7 +5336,9 @@
       <c r="D158">
         <v>631</v>
       </c>
-      <c r="E158" s="4"/>
+      <c r="E158" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="F158" s="3"/>
       <c r="G158" s="11"/>
       <c r="H158" s="12"/>
@@ -4319,7 +5358,9 @@
       <c r="D159">
         <v>632</v>
       </c>
-      <c r="E159" s="4"/>
+      <c r="E159" s="4" t="s">
+        <v>426</v>
+      </c>
       <c r="F159" s="3"/>
       <c r="G159" s="11"/>
       <c r="H159" s="12"/>
@@ -4341,7 +5382,9 @@
       <c r="D160">
         <v>633</v>
       </c>
-      <c r="E160" s="4"/>
+      <c r="E160" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="F160" s="3"/>
       <c r="G160" s="11"/>
       <c r="H160" s="12"/>
@@ -4361,7 +5404,9 @@
       <c r="D161">
         <v>634</v>
       </c>
-      <c r="E161" s="4"/>
+      <c r="E161" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="F161" s="3"/>
       <c r="G161" s="11"/>
       <c r="H161" s="12"/>
@@ -4381,7 +5426,9 @@
       <c r="D162">
         <v>635</v>
       </c>
-      <c r="E162" s="4"/>
+      <c r="E162" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="F162" s="3"/>
       <c r="G162" s="11"/>
       <c r="H162" s="12"/>
@@ -4401,7 +5448,9 @@
       <c r="D163">
         <v>636</v>
       </c>
-      <c r="E163" s="4"/>
+      <c r="E163" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="F163" s="3"/>
       <c r="G163" s="11"/>
       <c r="H163" s="12"/>
@@ -4421,7 +5470,9 @@
       <c r="D164">
         <v>637</v>
       </c>
-      <c r="E164" s="4"/>
+      <c r="E164" s="4" t="s">
+        <v>431</v>
+      </c>
       <c r="F164" s="3"/>
       <c r="G164" s="11"/>
       <c r="H164" s="12"/>
@@ -4441,7 +5492,9 @@
       <c r="D165">
         <v>638</v>
       </c>
-      <c r="E165" s="4"/>
+      <c r="E165" s="4" t="s">
+        <v>432</v>
+      </c>
       <c r="F165" s="3"/>
       <c r="G165" s="11"/>
       <c r="H165" s="12"/>
@@ -4461,7 +5514,9 @@
       <c r="D166">
         <v>639</v>
       </c>
-      <c r="E166" s="4"/>
+      <c r="E166" s="4" t="s">
+        <v>433</v>
+      </c>
       <c r="F166" s="3"/>
       <c r="G166" s="11"/>
       <c r="H166" s="12"/>
@@ -4481,7 +5536,9 @@
       <c r="D167">
         <v>640</v>
       </c>
-      <c r="E167" s="4"/>
+      <c r="E167" s="4" t="s">
+        <v>434</v>
+      </c>
       <c r="F167" s="3"/>
       <c r="G167" s="11"/>
       <c r="H167" s="12"/>
@@ -4501,7 +5558,9 @@
       <c r="D168">
         <v>641</v>
       </c>
-      <c r="E168" s="4"/>
+      <c r="E168" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="F168" s="3"/>
       <c r="G168" s="11"/>
       <c r="H168" s="12"/>
@@ -4521,7 +5580,9 @@
       <c r="D169">
         <v>642</v>
       </c>
-      <c r="E169" s="4"/>
+      <c r="E169" s="4" t="s">
+        <v>436</v>
+      </c>
       <c r="F169" s="3"/>
       <c r="G169" s="11"/>
       <c r="H169" s="12"/>
@@ -4541,7 +5602,9 @@
       <c r="D170">
         <v>643</v>
       </c>
-      <c r="E170" s="4"/>
+      <c r="E170" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="F170" s="3"/>
       <c r="G170" s="11"/>
       <c r="H170" s="12"/>
@@ -4561,7 +5624,9 @@
       <c r="D171">
         <v>644</v>
       </c>
-      <c r="E171" s="4"/>
+      <c r="E171" s="4" t="s">
+        <v>438</v>
+      </c>
       <c r="F171" s="3"/>
       <c r="G171" s="11"/>
       <c r="H171" s="12"/>
@@ -4581,7 +5646,9 @@
       <c r="D172">
         <v>645</v>
       </c>
-      <c r="E172" s="4"/>
+      <c r="E172" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="F172" s="3"/>
       <c r="G172" s="11"/>
       <c r="H172" s="12"/>
@@ -4601,7 +5668,9 @@
       <c r="D173">
         <v>646</v>
       </c>
-      <c r="E173" s="4"/>
+      <c r="E173" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="F173" s="3"/>
       <c r="G173" s="11"/>
       <c r="H173" s="12"/>
@@ -4621,7 +5690,9 @@
       <c r="D174">
         <v>647</v>
       </c>
-      <c r="E174" s="4"/>
+      <c r="E174" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="F174" s="3"/>
       <c r="G174" s="11"/>
       <c r="H174" s="12"/>
@@ -4641,7 +5712,9 @@
       <c r="D175">
         <v>648</v>
       </c>
-      <c r="E175" s="4"/>
+      <c r="E175" s="4" t="s">
+        <v>442</v>
+      </c>
       <c r="F175" s="3"/>
       <c r="G175" s="11"/>
       <c r="H175" s="12"/>
@@ -4661,7 +5734,9 @@
       <c r="D176">
         <v>649</v>
       </c>
-      <c r="E176" s="4"/>
+      <c r="E176" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="F176" s="3"/>
       <c r="G176" s="11"/>
       <c r="H176" s="12"/>
@@ -4681,7 +5756,9 @@
       <c r="D177">
         <v>650</v>
       </c>
-      <c r="E177" s="4"/>
+      <c r="E177" s="4" t="s">
+        <v>444</v>
+      </c>
       <c r="F177" s="3"/>
       <c r="G177" s="11"/>
       <c r="H177" s="12"/>
@@ -4701,7 +5778,9 @@
       <c r="D178">
         <v>651</v>
       </c>
-      <c r="E178" s="4"/>
+      <c r="E178" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="F178" s="3"/>
       <c r="G178" s="11"/>
       <c r="H178" s="12"/>
@@ -4721,7 +5800,9 @@
       <c r="D179">
         <v>652</v>
       </c>
-      <c r="E179" s="4"/>
+      <c r="E179" s="4" t="s">
+        <v>446</v>
+      </c>
       <c r="F179" s="3"/>
       <c r="G179" s="11"/>
       <c r="H179" s="12"/>
@@ -4821,7 +5902,9 @@
       <c r="D184">
         <v>653</v>
       </c>
-      <c r="E184" s="4"/>
+      <c r="E184" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="11"/>
       <c r="H184" s="12"/>
@@ -4843,7 +5926,9 @@
       <c r="D185">
         <v>654</v>
       </c>
-      <c r="E185" s="4"/>
+      <c r="E185" s="4" t="s">
+        <v>448</v>
+      </c>
       <c r="F185" s="3"/>
       <c r="G185" s="11"/>
       <c r="H185" s="12"/>
@@ -4863,7 +5948,9 @@
       <c r="D186">
         <v>655</v>
       </c>
-      <c r="E186" s="4"/>
+      <c r="E186" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="F186" s="3"/>
       <c r="G186" s="11"/>
       <c r="H186" s="12"/>
@@ -4883,7 +5970,9 @@
       <c r="D187">
         <v>656</v>
       </c>
-      <c r="E187" s="4"/>
+      <c r="E187" s="4" t="s">
+        <v>450</v>
+      </c>
       <c r="F187" s="3"/>
       <c r="G187" s="11"/>
       <c r="H187" s="12"/>
@@ -4903,7 +5992,9 @@
       <c r="D188">
         <v>657</v>
       </c>
-      <c r="E188" s="4"/>
+      <c r="E188" s="4" t="s">
+        <v>451</v>
+      </c>
       <c r="F188" s="3"/>
       <c r="G188" s="11"/>
       <c r="H188" s="12"/>
@@ -4923,7 +6014,9 @@
       <c r="D189">
         <v>658</v>
       </c>
-      <c r="E189" s="4"/>
+      <c r="E189" s="4" t="s">
+        <v>452</v>
+      </c>
       <c r="F189" s="3"/>
       <c r="G189" s="11"/>
       <c r="H189" s="12"/>
@@ -4943,7 +6036,9 @@
       <c r="D190">
         <v>659</v>
       </c>
-      <c r="E190" s="4"/>
+      <c r="E190" s="4" t="s">
+        <v>453</v>
+      </c>
       <c r="F190" s="3"/>
       <c r="G190" s="11"/>
       <c r="H190" s="12"/>
@@ -4963,7 +6058,9 @@
       <c r="D191">
         <v>660</v>
       </c>
-      <c r="E191" s="4"/>
+      <c r="E191" s="4" t="s">
+        <v>454</v>
+      </c>
       <c r="F191" s="3"/>
       <c r="G191" s="11"/>
       <c r="H191" s="12"/>
@@ -4983,7 +6080,9 @@
       <c r="D192">
         <v>661</v>
       </c>
-      <c r="E192" s="4"/>
+      <c r="E192" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="F192" s="3"/>
       <c r="G192" s="11"/>
       <c r="H192" s="12"/>
@@ -5003,7 +6102,9 @@
       <c r="D193">
         <v>662</v>
       </c>
-      <c r="E193" s="4"/>
+      <c r="E193" s="4" t="s">
+        <v>456</v>
+      </c>
       <c r="F193" s="3"/>
       <c r="G193" s="11"/>
       <c r="H193" s="12"/>
@@ -5023,7 +6124,9 @@
       <c r="D194">
         <v>663</v>
       </c>
-      <c r="E194" s="4"/>
+      <c r="E194" s="4" t="s">
+        <v>457</v>
+      </c>
       <c r="F194" s="3"/>
       <c r="G194" s="11"/>
       <c r="H194" s="12"/>
@@ -5043,7 +6146,9 @@
       <c r="D195">
         <v>664</v>
       </c>
-      <c r="E195" s="4"/>
+      <c r="E195" s="4" t="s">
+        <v>458</v>
+      </c>
       <c r="F195" s="3"/>
       <c r="G195" s="11"/>
       <c r="H195" s="12"/>
@@ -5063,7 +6168,9 @@
       <c r="D196">
         <v>665</v>
       </c>
-      <c r="E196" s="4"/>
+      <c r="E196" s="4" t="s">
+        <v>459</v>
+      </c>
       <c r="F196" s="3"/>
       <c r="G196" s="11"/>
       <c r="H196" s="12"/>
@@ -5083,7 +6190,9 @@
       <c r="D197">
         <v>666</v>
       </c>
-      <c r="E197" s="4"/>
+      <c r="E197" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="F197" s="3"/>
       <c r="G197" s="11"/>
       <c r="H197" s="12"/>
@@ -5103,7 +6212,9 @@
       <c r="D198">
         <v>667</v>
       </c>
-      <c r="E198" s="4"/>
+      <c r="E198" s="4" t="s">
+        <v>461</v>
+      </c>
       <c r="F198" s="3"/>
       <c r="G198" s="11"/>
       <c r="H198" s="12"/>
@@ -5123,7 +6234,9 @@
       <c r="D199">
         <v>668</v>
       </c>
-      <c r="E199" s="4"/>
+      <c r="E199" s="4" t="s">
+        <v>462</v>
+      </c>
       <c r="F199" s="3"/>
       <c r="G199" s="11"/>
       <c r="H199" s="12"/>
@@ -5143,7 +6256,9 @@
       <c r="D200">
         <v>669</v>
       </c>
-      <c r="E200" s="4"/>
+      <c r="E200" s="4" t="s">
+        <v>463</v>
+      </c>
       <c r="F200" s="3"/>
       <c r="G200" s="11"/>
       <c r="H200" s="12"/>
@@ -5163,7 +6278,9 @@
       <c r="D201">
         <v>670</v>
       </c>
-      <c r="E201" s="4"/>
+      <c r="E201" s="4" t="s">
+        <v>464</v>
+      </c>
       <c r="F201" s="3"/>
       <c r="G201" s="11"/>
       <c r="H201" s="12"/>
@@ -5183,7 +6300,9 @@
       <c r="D202">
         <v>671</v>
       </c>
-      <c r="E202" s="4"/>
+      <c r="E202" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="F202" s="3"/>
       <c r="G202" s="11"/>
       <c r="H202" s="12"/>
@@ -5203,7 +6322,9 @@
       <c r="D203">
         <v>672</v>
       </c>
-      <c r="E203" s="4"/>
+      <c r="E203" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="F203" s="3"/>
       <c r="G203" s="11"/>
       <c r="H203" s="12"/>
@@ -5223,7 +6344,9 @@
       <c r="D204">
         <v>673</v>
       </c>
-      <c r="E204" s="4"/>
+      <c r="E204" s="4" t="s">
+        <v>467</v>
+      </c>
       <c r="F204" s="3"/>
       <c r="G204" s="11"/>
       <c r="H204" s="12"/>
@@ -5243,7 +6366,9 @@
       <c r="D205">
         <v>674</v>
       </c>
-      <c r="E205" s="4"/>
+      <c r="E205" s="4" t="s">
+        <v>468</v>
+      </c>
       <c r="F205" s="3"/>
       <c r="G205" s="11"/>
       <c r="H205" s="12"/>
@@ -5262,6 +6387,9 @@
       <c r="D206">
         <v>675</v>
       </c>
+      <c r="E206" s="4" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B207" s="3" t="s">
@@ -5273,6 +6401,9 @@
       <c r="D207">
         <v>676</v>
       </c>
+      <c r="E207" s="4" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
@@ -5284,6 +6415,9 @@
       <c r="D208">
         <v>677</v>
       </c>
+      <c r="E208" s="4" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="209" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B209" s="3" t="s">
@@ -5295,6 +6429,9 @@
       <c r="D209">
         <v>678</v>
       </c>
+      <c r="E209" s="4" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
@@ -5306,6 +6443,9 @@
       <c r="D210">
         <v>679</v>
       </c>
+      <c r="E210" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
@@ -5317,6 +6457,9 @@
       <c r="D211">
         <v>680</v>
       </c>
+      <c r="E211" s="4" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="212" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
@@ -5328,6 +6471,9 @@
       <c r="D212">
         <v>681</v>
       </c>
+      <c r="E212" s="4" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="213" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
@@ -5339,6 +6485,9 @@
       <c r="D213">
         <v>682</v>
       </c>
+      <c r="E213" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B214" s="3" t="s">
@@ -5350,6 +6499,9 @@
       <c r="D214">
         <v>683</v>
       </c>
+      <c r="E214" s="4" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B215" s="3" t="s">
@@ -5361,6 +6513,9 @@
       <c r="D215">
         <v>684</v>
       </c>
+      <c r="E215" s="4" t="s">
+        <v>478</v>
+      </c>
       <c r="L215" t="s">
         <v>266</v>
       </c>
@@ -5375,6 +6530,9 @@
       <c r="D216">
         <v>685</v>
       </c>
+      <c r="E216" s="4" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B217" s="3" t="s">
@@ -5386,6 +6544,9 @@
       <c r="D217">
         <v>686</v>
       </c>
+      <c r="E217" s="4" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="218" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B218" s="3" t="s">
@@ -5397,6 +6558,9 @@
       <c r="D218">
         <v>687</v>
       </c>
+      <c r="E218" s="4" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B219" s="3" t="s">
@@ -5408,6 +6572,9 @@
       <c r="D219">
         <v>688</v>
       </c>
+      <c r="E219" s="4" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B220" s="3" t="s">
@@ -5419,6 +6586,9 @@
       <c r="D220">
         <v>689</v>
       </c>
+      <c r="E220" s="4" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B221" s="3" t="s">
@@ -5430,6 +6600,9 @@
       <c r="D221">
         <v>690</v>
       </c>
+      <c r="E221" s="4" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="222" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B222" s="3" t="s">
@@ -5441,6 +6614,9 @@
       <c r="D222">
         <v>691</v>
       </c>
+      <c r="E222" s="4" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B223" s="3" t="s">
@@ -5452,6 +6628,9 @@
       <c r="D223">
         <v>692</v>
       </c>
+      <c r="E223" s="4" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="224" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B224" s="3" t="s">
@@ -5463,6 +6642,9 @@
       <c r="D224">
         <v>693</v>
       </c>
+      <c r="E224" s="4" t="s">
+        <v>487</v>
+      </c>
       <c r="L224" t="s">
         <v>267</v>
       </c>
@@ -5477,6 +6659,9 @@
       <c r="D225">
         <v>694</v>
       </c>
+      <c r="E225" s="4" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="226" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B226" s="3" t="s">
@@ -5488,6 +6673,9 @@
       <c r="D226">
         <v>695</v>
       </c>
+      <c r="E226" s="4" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="227" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B227" s="3" t="s">
@@ -5499,6 +6687,9 @@
       <c r="D227">
         <v>696</v>
       </c>
+      <c r="E227" s="4" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="228" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B228" s="3" t="s">
@@ -5510,6 +6701,9 @@
       <c r="D228">
         <v>697</v>
       </c>
+      <c r="E228" s="4" t="s">
+        <v>491</v>
+      </c>
       <c r="L228" t="s">
         <v>268</v>
       </c>
@@ -5524,6 +6718,9 @@
       <c r="D229">
         <v>698</v>
       </c>
+      <c r="E229" s="4" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="230" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B230" s="3" t="s">
@@ -5535,6 +6732,9 @@
       <c r="D230">
         <v>699</v>
       </c>
+      <c r="E230" s="4" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="231" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B231" s="3" t="s">
@@ -5546,6 +6746,9 @@
       <c r="D231">
         <v>700</v>
       </c>
+      <c r="E231" s="4" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="232" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B232" s="3" t="s">
@@ -5557,6 +6760,9 @@
       <c r="D232">
         <v>701</v>
       </c>
+      <c r="E232" s="4" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="233" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B233" s="3" t="s">
@@ -5568,6 +6774,9 @@
       <c r="D233">
         <v>702</v>
       </c>
+      <c r="E233" s="4" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="234" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B234" s="3" t="s">
@@ -5579,6 +6788,9 @@
       <c r="D234">
         <v>703</v>
       </c>
+      <c r="E234" s="4" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="235" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B235" s="3" t="s">
@@ -5590,6 +6802,9 @@
       <c r="D235">
         <v>704</v>
       </c>
+      <c r="E235" s="4" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="236" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B236" s="3" t="s">
@@ -5601,6 +6816,9 @@
       <c r="D236">
         <v>705</v>
       </c>
+      <c r="E236" s="4" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="237" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B237" s="3" t="s">
@@ -5612,6 +6830,9 @@
       <c r="D237">
         <v>706</v>
       </c>
+      <c r="E237" s="4" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="238" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B238" s="3" t="s">
@@ -5623,6 +6844,9 @@
       <c r="D238">
         <v>707</v>
       </c>
+      <c r="E238" s="4" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="239" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B239" s="3" t="s">
@@ -5634,6 +6858,9 @@
       <c r="D239">
         <v>708</v>
       </c>
+      <c r="E239" s="4" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="240" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B240" s="3" t="s">
@@ -5645,8 +6872,11 @@
       <c r="D240">
         <v>709</v>
       </c>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B241" s="3" t="s">
         <v>250</v>
       </c>
@@ -5656,8 +6886,14 @@
       <c r="D241">
         <v>710</v>
       </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="L241" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B242" s="3" t="s">
         <v>251</v>
       </c>
@@ -5667,8 +6903,11 @@
       <c r="D242">
         <v>711</v>
       </c>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B243" s="3" t="s">
         <v>252</v>
       </c>
@@ -5678,8 +6917,11 @@
       <c r="D243">
         <v>712</v>
       </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B244" s="3" t="s">
         <v>253</v>
       </c>
@@ -5689,8 +6931,11 @@
       <c r="D244">
         <v>713</v>
       </c>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B245" s="3" t="s">
         <v>254</v>
       </c>
@@ -5699,6 +6944,9 @@
       </c>
       <c r="D245">
         <v>714</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
